--- a/dependencies/bi/taylorella/te_92-0972/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/taylorella/te_92-0972/script_dependents/Filtered_Regions.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/taylorella/vsnp/te_/script_dependents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\bi\taylorella\vsnp\te_92-0972\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CCDDF4-81EA-DD4A-A0E0-58CB4E06F70E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52700" yWindow="7360" windowWidth="18520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52695" yWindow="7365" windowWidth="18525" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CHROM" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,15 +24,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>te_SAMPLEDESIGNATION-All</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-A</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-A1</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-A2</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-A3</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-B</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-C</t>
+  </si>
+  <si>
+    <t>Tequigenitalis-02-D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -198,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +395,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -776,15 +799,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="279">
     <cellStyle name="20% - Accent1" xfId="148" builtinId="30" customBuiltin="1"/>
@@ -1060,8 +1082,8 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Normal 2" xfId="171"/>
+    <cellStyle name="Note 2" xfId="172"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -1401,371 +1423,1889 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="25.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1018050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1047902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1047908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1047917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1047935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1047947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1047952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1047965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1047968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1047970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1047971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1047974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1047977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1047978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1047980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1047992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1048004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1048049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1048052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1048055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1048105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1048106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1048112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1048124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1048126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1048166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1048169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1048265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1048274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1048286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1048294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1048296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1048297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1048298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1048301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1048302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>1048319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>1048361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>1048366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1048388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>1048391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>1048442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>1048513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>1048526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>1048528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>1048529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>1048538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>1048720</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>1048818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>1048847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>1048883</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>1048904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>1048949</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>1048991</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>1049000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>1049028</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>1049120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>1049129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>1049338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>1049612</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>1050165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>1050171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>1050387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>1050441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>1050444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>1050459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>1050465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>1050480</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>1050482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>1050483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>1050519</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>1050543</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>1050549</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>1050555</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>1050657</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>1050658</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>1050659</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>1050663</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>1050666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>1050717</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>1050723</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>1050726</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>1050728</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>1050738</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>1050788</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>1050801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>1050803</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>1050804</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>1050828</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>1050860</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>1050995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>1051122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>1051179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>1051224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>1051242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>1051479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>1051482</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>1051485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>1051515</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>1051526</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>1051533</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>1051650</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>1051675</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>1051704</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>1051713</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>1051723</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>1051725</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>1051728</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>1051729</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>1051731</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>1051751</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>1051760</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>1051774</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>1051777</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>1051780</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>1051794</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>1051824</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>1051861</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>1051869</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>1053296</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>1053297</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>1053299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>1053305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>1053311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>1053320</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>1053338</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>1053344</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>1053365</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>1053368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>1053371</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>1053372</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>1053373</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>1053374</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>1053377</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>1053380</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>1053381</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>1053383</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>1053395</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>1053407</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>1053419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>1053425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>1053428</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>1053499</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>1053527</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>1053587</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>1053593</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>1053638</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>1053641</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>1053647</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>1053651</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>1053653</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>1053658</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>1053659</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>1053747</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>1053755</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>1053911</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>1053926</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>1054202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>1054211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>1054259</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>1054334</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>1054367</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>1054379</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>1054403</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>1054475</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>1054598</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>1054649</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>1054748</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>1054751</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>1054765</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>1054766</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>1054769</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>1054853</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>1054982</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>1054991</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>1055041</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>1055136</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>1055146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>1055189</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>1055198</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>1055199</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>1055220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>1055221</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>1055231</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>1055234</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>1055248</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>1056502</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>1056628</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>1056705</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>1056823</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>1056829</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>1056835</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>1056845</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>1056849</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>1056850</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>1056923</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>1056931</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>1056988</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>1057087</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>1057102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>1057315</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>1057378</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>1057417</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>1057651</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>1057774</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>1057825</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>1057918</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>1057941</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>1057942</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>1057945</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>1058017</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>1058312</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>1058322</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>1058377</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>1058813</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>1059520</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>1059547</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>1059571</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>1059575</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>1059577</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>1059586</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>1059589</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>1059592</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>1059593</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>1059595</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>1059598</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>1059601</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>1059653</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>1059729</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>1059730</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>1059775</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>1059873</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>1059886</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>1059889</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>1059895</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>1059910</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>1059913</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>1059916</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>1059920</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>1059921</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>1059922</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>1059924</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>1059926</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>1059985</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>1059990</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>1060007</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>1060008</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>1060063</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>1060066</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>1060137</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>1060270</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>1060297</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>1060409</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>1060415</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>1060459</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>1060939</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>1061022</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>1061023</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>1063141</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>1063144</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>1063311</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>1063319</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <v>1063328</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <v>1063332</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <v>1063387</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>1063393</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>1063396</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>1063398</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>1063458</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>1063471</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>1063473</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>1063474</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>1063549</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>1063618</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>1063696</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>1063721</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>1063722</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>1063736</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>1063780</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>1063789</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>1063837</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>1063912</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>1063945</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>1063957</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>1063981</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>1064227</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>1064544</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>1064560</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>1064569</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>1064587</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>1064647</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>1064649</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>1064650</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>1064701</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>1469946</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>1469958</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>1469964</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>1469976</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>1469979</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>1469988</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>1469991</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>1469993</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>1469994</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>1469997</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>1470001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <v>1470003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>1470015</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>1470027</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>1470045</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <v>1470072</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>1470075</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <v>1470147</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>1470149</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <v>1470207</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>1470228</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <v>1470537</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <v>1470546</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <v>1470556</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>1470576</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <v>1470578</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <v>1470579</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
+        <v>1470591</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>1470593</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
+        <v>1470639</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <v>1470666</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <v>1470734</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>1470735</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <v>1470750</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <v>1470756</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <v>1470757</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <v>1470758</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
+        <v>1470765</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
+        <v>1470777</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <v>1470778</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
+        <v>1470837</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <v>1470840</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <v>1470876</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
+        <v>1470933</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>1470960</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <v>1470984</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <v>1470993</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <v>1471029</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <v>1471101</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <v>1471146</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <v>1471197</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <v>1471275</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <v>1471308</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <v>1471321</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <v>1471322</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <v>1471338</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <v>1471368</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>1471395</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>1471467</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <v>1471617</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <v>1471635</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <v>1472042</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <v>1474285</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <v>1474701</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>1475412</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <v>1475890</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <v>1598474</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <v>1598476</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <v>1598480</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <v>1656119</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <v>1656638</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <v>1656686</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <v>1656803</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
